--- a/Traffic.xlsx
+++ b/Traffic.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">Url</t>
   </si>
@@ -34,7 +34,10 @@
     <t xml:space="preserve">Description</t>
   </si>
   <si>
-    <t xml:space="preserve">APIKeySecurity</t>
+    <t xml:space="preserve">Quota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpikeArrest</t>
   </si>
   <si>
     <t xml:space="preserve">https://google.com</t>
@@ -67,6 +70,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://httpbin.org</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">httpbin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
 </sst>
 </file>
@@ -190,24 +193,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,39 +228,48 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -266,36 +277,42 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Traffic.xlsx
+++ b/Traffic.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Traffic.xlsx
+++ b/Traffic.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
